--- a/downloads/RSSY Risk Decomp 08.21.24.xlsx
+++ b/downloads/RSSY Risk Decomp 08.21.24.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8/21/2024 5:36:27 PM</t>
+          <t>8/21/2024 5:57:51 PM</t>
         </is>
       </c>
     </row>

--- a/downloads/RSSY Risk Decomp 08.21.24.xlsx
+++ b/downloads/RSSY Risk Decomp 08.21.24.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8/21/2024 5:57:51 PM</t>
+          <t>8/21/2024 6:11:51 PM</t>
         </is>
       </c>
     </row>
